--- a/inventario_equipos.xlsx
+++ b/inventario_equipos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\electromedicina\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\electromedicina\Desktop\electromedicine_automatization_tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B34791-2B55-40D4-92D4-28EE4029857B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530E116C-BB6D-4B96-A39B-3A568402A9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>Equipo</t>
   </si>
@@ -102,12 +102,6 @@
     <t>Cios Flow neo</t>
   </si>
   <si>
-    <t>General Electric</t>
-  </si>
-  <si>
-    <t>OEC 7900</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aspirador </t>
   </si>
   <si>
@@ -124,24 +118,6 @@
   </si>
   <si>
     <t>EVA-40</t>
-  </si>
-  <si>
-    <t>Auto Clave</t>
-  </si>
-  <si>
-    <t>Baumer</t>
-  </si>
-  <si>
-    <t>B365</t>
-  </si>
-  <si>
-    <t>Bomba de Infusion</t>
-  </si>
-  <si>
-    <t>BioTech</t>
-  </si>
-  <si>
-    <t>KL-602</t>
   </si>
 </sst>
 </file>
@@ -233,8 +209,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{188C6F20-CBFC-4B7D-828D-7FADFAADF4CE}" name="Tabla1" displayName="Tabla1" ref="A1:C17" totalsRowShown="0">
-  <autoFilter ref="A1:C17" xr:uid="{188C6F20-CBFC-4B7D-828D-7FADFAADF4CE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{188C6F20-CBFC-4B7D-828D-7FADFAADF4CE}" name="Tabla1" displayName="Tabla1" ref="A1:C14" totalsRowShown="0">
+  <autoFilter ref="A1:C14" xr:uid="{188C6F20-CBFC-4B7D-828D-7FADFAADF4CE}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{F4F11338-64F4-44A6-BBE1-9499D0670055}" name="Equipo"/>
     <tableColumn id="2" xr3:uid="{56129642-B41A-4B68-8958-1FA298B059E4}" name="Marca"/>
@@ -510,7 +486,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,38 +597,38 @@
     </row>
     <row r="10" spans="1:3" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>28</v>
@@ -662,48 +638,20 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
